--- a/example/GRAFS_project_example_C.xlsx
+++ b/example/GRAFS_project_example_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97DAF1F-6324-481C-A936-3B83EA1F168B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB7F5D-BF7E-42CE-8CBD-914B587E8DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>Culture</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Root Humification Coefficient (%)</t>
+  </si>
+  <si>
+    <t>Waste (%)</t>
+  </si>
+  <si>
+    <t>Other uses (%)</t>
   </si>
 </sst>
 </file>
@@ -700,19 +706,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
-    <col min="10" max="11" width="37.81640625" customWidth="1"/>
-    <col min="12" max="12" width="32.1796875" customWidth="1"/>
-    <col min="13" max="13" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="10" max="11" width="37.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -794,7 +800,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -835,7 +841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -876,7 +882,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -917,7 +923,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -958,7 +964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1053,16 +1059,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" customWidth="1"/>
-    <col min="5" max="5" width="35.81640625" customWidth="1"/>
-    <col min="6" max="6" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>3.5181818181818182E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1127,12 +1133,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1173,15 +1179,15 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1340,22 +1346,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1374,8 +1381,14 @@
       <c r="F1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1394,8 +1407,14 @@
       <c r="F2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1414,8 +1433,14 @@
       <c r="F3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1434,8 +1459,14 @@
       <c r="F4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1454,8 +1485,14 @@
       <c r="F5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1474,8 +1511,14 @@
       <c r="F6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1494,8 +1537,14 @@
       <c r="F7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1514,8 +1563,14 @@
       <c r="F8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1534,8 +1589,14 @@
       <c r="F9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1554,8 +1615,14 @@
       <c r="F10">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1574,8 +1641,14 @@
       <c r="F11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1593,6 +1666,12 @@
       </c>
       <c r="F12">
         <v>18</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1688,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1630,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1717,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1646,7 +1725,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>

--- a/example/GRAFS_project_example_C.xlsx
+++ b/example/GRAFS_project_example_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB7F5D-BF7E-42CE-8CBD-914B587E8DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBCBD7-99C9-4568-8015-D0530EADD436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Soya beans</t>
   </si>
   <si>
-    <t>natural meadow</t>
-  </si>
-  <si>
     <t>Nitrogen Content (%)</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>coefficient N-N2O indirect emission synthetic fertilization (%)</t>
   </si>
   <si>
-    <t>grasslands</t>
-  </si>
-  <si>
     <t>Excreted indoor (%)</t>
   </si>
   <si>
@@ -291,6 +285,12 @@
   </si>
   <si>
     <t>Other uses (%)</t>
+  </si>
+  <si>
+    <t>grazing</t>
+  </si>
+  <si>
+    <t>natural meadows</t>
   </si>
 </sst>
 </file>
@@ -702,28 +702,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="10" max="11" width="37.85546875" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="10" max="11" width="37.81640625" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" customWidth="1"/>
+    <col min="13" max="13" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -744,27 +744,27 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -800,12 +800,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -841,12 +841,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -882,12 +882,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -923,12 +923,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -964,12 +964,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1005,15 +1005,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1059,33 +1059,33 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.81640625" customWidth="1"/>
+    <col min="6" max="6" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>3.5181818181818182E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1133,26 +1133,26 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1179,17 +1179,17 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1198,33 +1198,33 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>35.880000000000003</v>
@@ -1239,15 +1239,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>7.7</v>
@@ -1259,15 +1259,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>10.32</v>
@@ -1279,15 +1279,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>22.8</v>
@@ -1299,15 +1299,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>4.46</v>
@@ -1319,15 +1319,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1348,21 +1348,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1376,21 +1376,21 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1414,9 +1414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1440,9 +1440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1466,9 +1466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1492,9 +1492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1518,9 +1518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1544,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>2.0499999999999998</v>
@@ -1570,9 +1570,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1596,9 +1596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1622,9 +1622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1648,9 +1648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1659,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -1688,54 +1688,54 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>0.8</v>

--- a/example/GRAFS_project_example_C.xlsx
+++ b/example/GRAFS_project_example_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBCBD7-99C9-4568-8015-D0530EADD436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE309C8-7FCF-477F-8C19-213F4AAD7550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Culture</t>
   </si>
@@ -291,6 +291,48 @@
   </si>
   <si>
     <t>natural meadows</t>
+  </si>
+  <si>
+    <t>Methanizer Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Weight methanizer production</t>
+  </si>
+  <si>
+    <t>Weight methanizer inputs</t>
+  </si>
+  <si>
+    <t>Green waste methanization power (MWh/ktN)</t>
+  </si>
+  <si>
+    <t>Weight import</t>
+  </si>
+  <si>
+    <t>Methanization power (MWh/tFW)</t>
+  </si>
+  <si>
+    <t>Production (kton)</t>
+  </si>
+  <si>
+    <t>Forage</t>
+  </si>
+  <si>
+    <t>Forage crop</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>Spreading Rate (%)</t>
+  </si>
+  <si>
+    <t>Seed input (kt seeds/kt Ymax)</t>
+  </si>
+  <si>
+    <t>Area (ha)</t>
+  </si>
+  <si>
+    <t>Green waste C/N</t>
   </si>
 </sst>
 </file>
@@ -700,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,12 +755,14 @@
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" customWidth="1"/>
     <col min="5" max="5" width="31.7265625" customWidth="1"/>
-    <col min="10" max="11" width="37.81640625" customWidth="1"/>
-    <col min="12" max="12" width="32.1796875" customWidth="1"/>
-    <col min="13" max="13" width="28.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="12" width="25.54296875" customWidth="1"/>
+    <col min="13" max="14" width="37.81640625" customWidth="1"/>
+    <col min="15" max="15" width="32.1796875" customWidth="1"/>
+    <col min="16" max="16" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,19 +791,28 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -788,19 +841,28 @@
         <v>0.4</v>
       </c>
       <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="N2" s="4">
         <v>40</v>
       </c>
-      <c r="L2" s="4">
+      <c r="O2" s="4">
         <v>22</v>
       </c>
-      <c r="M2" s="4">
+      <c r="P2" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -829,19 +891,28 @@
         <v>0.4</v>
       </c>
       <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <v>40</v>
       </c>
-      <c r="L3" s="4">
+      <c r="O3" s="4">
         <v>22</v>
       </c>
-      <c r="M3" s="4">
+      <c r="P3" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -870,19 +941,28 @@
         <v>0.4</v>
       </c>
       <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="4">
         <v>40</v>
       </c>
-      <c r="L4" s="4">
+      <c r="O4" s="4">
         <v>22</v>
       </c>
-      <c r="M4" s="4">
+      <c r="P4" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -911,19 +991,28 @@
         <v>0.4</v>
       </c>
       <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="4">
         <v>40</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="4">
         <v>22</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -952,19 +1041,28 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <v>40</v>
       </c>
-      <c r="L6" s="4">
+      <c r="O6" s="4">
         <v>22</v>
       </c>
-      <c r="M6" s="4">
+      <c r="P6" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -993,19 +1091,28 @@
         <v>0.9</v>
       </c>
       <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <v>40</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <v>28</v>
       </c>
-      <c r="M7" s="4">
+      <c r="P7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1034,16 +1141,75 @@
         <v>0.9</v>
       </c>
       <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
         <v>40</v>
       </c>
-      <c r="L8" s="4">
+      <c r="O8" s="4">
         <v>25</v>
       </c>
-      <c r="M8" s="4">
+      <c r="P8" s="4">
         <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1184,10 +1350,13 @@
     <col min="1" max="1" width="28.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1215,8 +1384,14 @@
       <c r="I1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1238,8 +1413,14 @@
       <c r="I2">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0.23</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1258,8 +1439,14 @@
       <c r="I3">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1278,8 +1465,14 @@
       <c r="I4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1296,10 +1489,16 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0.54</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1316,10 +1515,16 @@
         <v>18</v>
       </c>
       <c r="I6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0.21</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1337,6 +1542,12 @@
       </c>
       <c r="I7">
         <v>26</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,7 +1573,7 @@
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1598,14 @@
       <c r="H1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1413,8 +1630,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1439,8 +1659,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1465,8 +1688,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1491,8 +1717,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1517,8 +1746,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1543,8 +1775,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1569,8 +1804,11 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1595,8 +1833,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1621,8 +1862,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1647,8 +1891,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1671,6 +1918,41 @@
         <v>5</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -1682,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1741,6 +2023,54 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/GRAFS_project_example_C.xlsx
+++ b/example/GRAFS_project_example_C.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE309C8-7FCF-477F-8C19-213F4AAD7550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94166A49-0460-455B-A965-394CF969B4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
     <sheet name="livestock" sheetId="2" r:id="rId2"/>
     <sheet name="pop" sheetId="18" r:id="rId3"/>
-    <sheet name="excretion" sheetId="20" r:id="rId4"/>
-    <sheet name="prod" sheetId="12" r:id="rId5"/>
-    <sheet name="global" sheetId="19" r:id="rId6"/>
+    <sheet name="energy" sheetId="21" r:id="rId4"/>
+    <sheet name="excretion" sheetId="20" r:id="rId5"/>
+    <sheet name="prod" sheetId="12" r:id="rId6"/>
+    <sheet name="global" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>Culture</t>
   </si>
@@ -293,24 +294,9 @@
     <t>natural meadows</t>
   </si>
   <si>
-    <t>Methanizer Energy Production (GWh)</t>
-  </si>
-  <si>
-    <t>Weight methanizer production</t>
-  </si>
-  <si>
-    <t>Weight methanizer inputs</t>
-  </si>
-  <si>
-    <t>Green waste methanization power (MWh/ktN)</t>
-  </si>
-  <si>
     <t>Weight import</t>
   </si>
   <si>
-    <t>Methanization power (MWh/tFW)</t>
-  </si>
-  <si>
     <t>Production (kton)</t>
   </si>
   <si>
@@ -326,20 +312,59 @@
     <t>Spreading Rate (%)</t>
   </si>
   <si>
-    <t>Seed input (kt seeds/kt Ymax)</t>
-  </si>
-  <si>
     <t>Area (ha)</t>
   </si>
   <si>
     <t>Green waste C/N</t>
+  </si>
+  <si>
+    <t>Seed input (ktN/ktN)</t>
+  </si>
+  <si>
+    <t>Energy Production (MWh/tFW)</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>Methanizer</t>
+  </si>
+  <si>
+    <t>Methanizer_diet</t>
+  </si>
+  <si>
+    <t>Bioraffinery</t>
+  </si>
+  <si>
+    <t>Bio_diet</t>
+  </si>
+  <si>
+    <t>Target Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Weight energy production</t>
+  </si>
+  <si>
+    <t>Weight energy inputs</t>
+  </si>
+  <si>
+    <t>Share CO2 (%)</t>
+  </si>
+  <si>
+    <t>Green waste nitrogen content (%)</t>
+  </si>
+  <si>
+    <t>Weight diet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +396,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -413,7 +446,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -424,6 +457,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,8 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,53 +799,53 @@
     <col min="16" max="16" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1164,13 +1201,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1222,7 +1259,10 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,20 +1274,20 @@
     <col min="6" max="6" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1296,7 +1336,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,17 +1347,17 @@
     <col min="4" max="4" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1338,11 +1381,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEF53-53BB-48A0-AECE-4B131377A116}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,43 +1472,44 @@
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1555,12 +1677,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,38 +1696,39 @@
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
+      <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1926,16 +2052,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1962,12 +2088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2025,23 +2151,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2049,26 +2175,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B10">
-        <v>50000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/example/GRAFS_project_example_C.xlsx
+++ b/example/GRAFS_project_example_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94166A49-0460-455B-A965-394CF969B4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D52EB9-9B02-4EB3-94B5-827925298428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-12270" yWindow="-16350" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
   <si>
     <t>Culture</t>
   </si>
@@ -72,12 +72,6 @@
     <t>leguminous</t>
   </si>
   <si>
-    <t>Surface Fertilization Need (kgN/ha)</t>
-  </si>
-  <si>
-    <t>Fertilization Need (kgN/qtl)</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Carbon Mechanisation Intensity (ktC/ha)</t>
   </si>
   <si>
-    <t>Surface Root Production (kgC/ha)</t>
-  </si>
-  <si>
     <t>Residue Humification Coefficient (%)</t>
   </si>
   <si>
@@ -297,67 +288,79 @@
     <t>Weight import</t>
   </si>
   <si>
+    <t>Forage</t>
+  </si>
+  <si>
+    <t>Forage crop</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>Spreading Rate (%)</t>
+  </si>
+  <si>
+    <t>Area (ha)</t>
+  </si>
+  <si>
+    <t>Green waste C/N</t>
+  </si>
+  <si>
+    <t>Seed input (ktN/ktN)</t>
+  </si>
+  <si>
+    <t>Energy Production (MWh/tFW)</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>Methanizer</t>
+  </si>
+  <si>
+    <t>Methanizer_diet</t>
+  </si>
+  <si>
+    <t>Bioraffinery</t>
+  </si>
+  <si>
+    <t>Bio_diet</t>
+  </si>
+  <si>
+    <t>Target Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Weight energy production</t>
+  </si>
+  <si>
+    <t>Weight energy inputs</t>
+  </si>
+  <si>
+    <t>Share CO2 (%)</t>
+  </si>
+  <si>
+    <t>Green waste nitrogen content (%)</t>
+  </si>
+  <si>
+    <t>Weight diet</t>
+  </si>
+  <si>
+    <t>Raw Surface Synthetic Fertilizer Use (kgN/ha)</t>
+  </si>
+  <si>
+    <t>Total Synthetic Fertilizer Use on crops (ktN)</t>
+  </si>
+  <si>
+    <t>Residue Nitrogen Content (%)</t>
+  </si>
+  <si>
     <t>Production (kton)</t>
   </si>
   <si>
-    <t>Forage</t>
-  </si>
-  <si>
-    <t>Forage crop</t>
-  </si>
-  <si>
-    <t>forage</t>
-  </si>
-  <si>
-    <t>Spreading Rate (%)</t>
-  </si>
-  <si>
-    <t>Area (ha)</t>
-  </si>
-  <si>
-    <t>Green waste C/N</t>
-  </si>
-  <si>
-    <t>Seed input (ktN/ktN)</t>
-  </si>
-  <si>
-    <t>Energy Production (MWh/tFW)</t>
-  </si>
-  <si>
-    <t>Facility</t>
-  </si>
-  <si>
-    <t>Diet</t>
-  </si>
-  <si>
-    <t>Methanizer</t>
-  </si>
-  <si>
-    <t>Methanizer_diet</t>
-  </si>
-  <si>
-    <t>Bioraffinery</t>
-  </si>
-  <si>
-    <t>Bio_diet</t>
-  </si>
-  <si>
-    <t>Target Energy Production (GWh)</t>
-  </si>
-  <si>
-    <t>Weight energy production</t>
-  </si>
-  <si>
-    <t>Weight energy inputs</t>
-  </si>
-  <si>
-    <t>Share CO2 (%)</t>
-  </si>
-  <si>
-    <t>Green waste nitrogen content (%)</t>
-  </si>
-  <si>
-    <t>Weight diet</t>
+    <t>Total Synthetic Fertilizer Use on grasslands (ktN)</t>
   </si>
 </sst>
 </file>
@@ -446,11 +449,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -776,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,462 +790,435 @@
     <col min="1" max="1" width="23.54296875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="12" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" customWidth="1"/>
+    <col min="10" max="10" width="43" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
+    <col min="12" max="12" width="29.08984375" customWidth="1"/>
     <col min="13" max="14" width="37.81640625" customWidth="1"/>
     <col min="15" max="15" width="32.1796875" customWidth="1"/>
-    <col min="16" max="16" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="25" x14ac:dyDescent="0.35">
+      <c r="O1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.4</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="3">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="3">
         <v>1E-4</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>40</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>22</v>
       </c>
-      <c r="P2" s="4">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.4</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>120</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3">
         <v>1E-4</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N5" s="3">
         <v>40</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O5" s="3">
         <v>22</v>
       </c>
-      <c r="P3" s="4">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>120</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40</v>
+      </c>
+      <c r="O6" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.49</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>40</v>
+      </c>
+      <c r="O8" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.4</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="N4" s="4">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="N5" s="4">
-        <v>40</v>
-      </c>
-      <c r="O5" s="4">
-        <v>22</v>
-      </c>
-      <c r="P5" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>125</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.5</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="N6" s="4">
-        <v>40</v>
-      </c>
-      <c r="O6" s="4">
-        <v>22</v>
-      </c>
-      <c r="P6" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="N7" s="4">
-        <v>40</v>
-      </c>
-      <c r="O7" s="4">
-        <v>28</v>
-      </c>
-      <c r="P7" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>150</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-0.49</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>40</v>
-      </c>
-      <c r="O8" s="4">
-        <v>25</v>
-      </c>
-      <c r="P8" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1274,21 +1247,21 @@
     <col min="6" max="6" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>74</v>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1347,23 +1320,23 @@
     <col min="4" max="4" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1399,35 +1372,35 @@
     <col min="5" max="5" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>102</v>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1435,16 +1408,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1478,50 +1451,50 @@
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>31</v>
+      <c r="I1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>35.880000000000003</v>
@@ -1544,13 +1517,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>7.7</v>
@@ -1570,13 +1543,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>10.32</v>
@@ -1596,13 +1569,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>22.8</v>
@@ -1622,13 +1595,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>4.46</v>
@@ -1648,13 +1621,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1679,13 +1652,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1696,53 +1669,50 @@
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1.95</v>
@@ -1756,22 +1726,19 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1.76</v>
@@ -1785,22 +1752,19 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2.08</v>
@@ -1814,22 +1778,19 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1.52</v>
@@ -1843,22 +1804,19 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1.07</v>
@@ -1872,19 +1830,16 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1901,22 +1856,19 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>2.0499999999999998</v>
@@ -1930,22 +1882,19 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2.27</v>
@@ -1959,22 +1908,19 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0.53</v>
@@ -1988,22 +1934,19 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2.83</v>
@@ -2017,22 +1960,19 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -2046,22 +1986,19 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2076,9 +2013,6 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.25</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -2090,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2103,15 +2037,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2119,7 +2053,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -2127,7 +2061,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -2135,15 +2069,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2151,7 +2085,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2159,7 +2093,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -2167,7 +2101,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2175,7 +2109,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2183,7 +2117,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2191,10 +2125,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
